--- a/06_weitere_Dateien/Arbeitsverteilung.xlsx
+++ b/06_weitere_Dateien/Arbeitsverteilung.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -82,16 +85,57 @@
   </si>
   <si>
     <t>Erstellung meines Teils der PowerPoint Präsenatation</t>
+  </si>
+  <si>
+    <t>Erstellung der Teile des Berichts, die mit meinem Kürzel CD gekennzeichnet sind</t>
+  </si>
+  <si>
+    <t>Erstellung der Teile der Dokumentation, die mit meinem Kürzel CD gekennzeichnet sind</t>
+  </si>
+  <si>
+    <t>Erstellung meines Teils der PowerPoint Präsentation</t>
+  </si>
+  <si>
+    <t>JavaScript-Code für Projekt schreiben (App starten, Login-Daten eintragen, Passende Note anhand des Namens suchen, Buttons automatisiert klicken, Noten beim Studenten eintragen)</t>
+  </si>
+  <si>
+    <t>Projekt aufgesetzt (Electron installiert)</t>
+  </si>
+  <si>
+    <t>Excel-Vorlagen erstellen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,16 +158,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -182,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -217,7 +289,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -394,7 +466,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,21 +474,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -430,7 +502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -438,81 +510,154 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B3:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/06_weitere_Dateien/Arbeitsverteilung.xlsx
+++ b/06_weitere_Dateien/Arbeitsverteilung.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8571142A-3B24-4B3D-8E0D-9E2BE681EFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -103,13 +104,40 @@
   </si>
   <si>
     <t>Excel-Vorlagen erstellen</t>
+  </si>
+  <si>
+    <t>Erstellung meines Teils der PowerPoint Präsentation und das Zusammenfügen und erstellen des Designs der PowerPoint der Gruppe</t>
+  </si>
+  <si>
+    <t>Erstellung des Berichts gekennzeichnet mit dem Kürzel MS</t>
+  </si>
+  <si>
+    <t>Adobe XD Mock-Up</t>
+  </si>
+  <si>
+    <t>Erstellung der Master CSS</t>
+  </si>
+  <si>
+    <t>Erstellung HTML Dateien für Sprint 2 Review inkl neuem CSS</t>
+  </si>
+  <si>
+    <t>Eintrag am 13.5</t>
+  </si>
+  <si>
+    <t>Erstellung des Logos</t>
+  </si>
+  <si>
+    <t>Style-Tile inkl. Schriftrecherche</t>
+  </si>
+  <si>
+    <t>Nacharbeiten an HTML Seiten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +164,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,7 +207,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,14 +216,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -466,29 +506,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -502,17 +542,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
@@ -522,9 +562,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
@@ -532,9 +572,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>26</v>
       </c>
@@ -542,9 +582,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
@@ -552,9 +592,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
@@ -562,9 +602,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -572,9 +612,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>23</v>
       </c>
@@ -582,68 +622,137 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="C13" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="C14" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="C15" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="C16" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -652,6 +761,7 @@
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B3:B9"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/06_weitere_Dateien/Arbeitsverteilung.xlsx
+++ b/06_weitere_Dateien/Arbeitsverteilung.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8571142A-3B24-4B3D-8E0D-9E2BE681EFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55BA522-E67C-4A7A-B0A5-19A2BFBC5DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Erstellung HTML Dateien für Sprint 2 Review inkl neuem CSS</t>
-  </si>
-  <si>
-    <t>Eintrag am 13.5</t>
   </si>
   <si>
     <t>Erstellung des Logos</t>
@@ -217,10 +214,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -517,7 +514,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +540,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -551,8 +548,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
@@ -563,8 +560,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
@@ -573,8 +570,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" t="s">
         <v>26</v>
       </c>
@@ -583,8 +580,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
@@ -593,8 +590,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
@@ -603,8 +600,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -613,8 +610,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
         <v>23</v>
       </c>
@@ -623,15 +620,15 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
+      <c r="D10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,14 +636,14 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
+      <c r="D11">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -676,13 +673,13 @@
         <v>31</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -691,10 +688,10 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">

--- a/06_weitere_Dateien/Arbeitsverteilung.xlsx
+++ b/06_weitere_Dateien/Arbeitsverteilung.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55BA522-E67C-4A7A-B0A5-19A2BFBC5DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -128,12 +127,15 @@
   </si>
   <si>
     <t>Nacharbeiten an HTML Seiten</t>
+  </si>
+  <si>
+    <t>Abklärung zur Aufnahme vom Video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,8 +191,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -220,19 +224,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+  <cellStyles count="15">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,29 +509,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -539,7 +545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -547,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -559,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
@@ -569,7 +575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" t="s">
@@ -579,7 +585,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
@@ -589,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="42">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
@@ -599,7 +605,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
@@ -609,7 +615,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" t="s">
@@ -619,144 +625,154 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="5"/>
-      <c r="B10" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="1:4">
+      <c r="C21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="22" spans="1:4">
+      <c r="C22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="23" spans="1:4">
+      <c r="C23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="24" spans="1:4">
+      <c r="C24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="25" spans="1:4">
+      <c r="C25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="27" spans="1:4">
+      <c r="C27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="28" spans="1:4">
+      <c r="C28" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B3:B10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06_weitere_Dateien/Arbeitsverteilung.xlsx
+++ b/06_weitere_Dateien/Arbeitsverteilung.xlsx
@@ -509,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,7 +520,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -572,7 +572,7 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/06_weitere_Dateien/Arbeitsverteilung.xlsx
+++ b/06_weitere_Dateien/Arbeitsverteilung.xlsx
@@ -509,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,7 +520,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -562,7 +562,7 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -592,7 +592,7 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="42">

--- a/06_weitere_Dateien/Arbeitsverteilung.xlsx
+++ b/06_weitere_Dateien/Arbeitsverteilung.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA96E4F3-6064-5740-ACDA-D17E00B1AF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -130,13 +131,31 @@
   </si>
   <si>
     <t>Abklärung zur Aufnahme vom Video</t>
+  </si>
+  <si>
+    <t>Einladen der Exceltabellen</t>
+  </si>
+  <si>
+    <t>Verarbeiten der Exceltabellen</t>
+  </si>
+  <si>
+    <t>Anzeigen der Exceltabellen</t>
+  </si>
+  <si>
+    <t>Verbindung mit Moodle Testing</t>
+  </si>
+  <si>
+    <t>Sonstiges an der Entwickelung</t>
+  </si>
+  <si>
+    <t>Dokumentation schreiben</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +244,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -509,21 +528,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
@@ -552,6 +571,9 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5"/>
@@ -595,7 +617,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42">
+    <row r="7" spans="1:4" ht="48">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
@@ -635,7 +657,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28">
+    <row r="11" spans="1:4" ht="32">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -767,6 +789,89 @@
     <row r="28" spans="1:4">
       <c r="C28" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/06_weitere_Dateien/Arbeitsverteilung.xlsx
+++ b/06_weitere_Dateien/Arbeitsverteilung.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA96E4F3-6064-5740-ACDA-D17E00B1AF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -154,8 +153,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +191,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,8 +216,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -226,31 +251,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+  <cellStyles count="21">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -258,6 +304,9 @@
     <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -528,21 +577,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
@@ -550,334 +599,384 @@
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3">
+      <c r="D12" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="2" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
+      <c r="D13" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5">
+      <c r="D14" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="D15" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="48">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3" t="s">
+    <row r="16" spans="1:4" ht="42">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="D16" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="D17" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
+      <c r="D18" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D10">
+      <c r="D19" s="6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32">
-      <c r="A11" s="5"/>
-      <c r="B11" t="s">
+    <row r="20" spans="1:4" ht="28">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11">
+      <c r="D20" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="C12" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12">
+      <c r="D21" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="C13" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13">
+      <c r="D22" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="C14" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D14">
+      <c r="D23" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="C15" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D15">
+      <c r="D24" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="C16" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16">
+      <c r="D25" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="C17" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17">
+      <c r="D26" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="C18" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D18">
+      <c r="D27" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B3:B10"/>
+  <mergeCells count="6">
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06_weitere_Dateien/Arbeitsverteilung.xlsx
+++ b/06_weitere_Dateien/Arbeitsverteilung.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E50F37-3E0D-7E45-BFC9-057A032DA397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -148,13 +149,31 @@
   </si>
   <si>
     <t>Dokumentation schreiben</t>
+  </si>
+  <si>
+    <t>Erstellung des Product Backlogs</t>
+  </si>
+  <si>
+    <t>Aktualisieren des Product Backlogs</t>
+  </si>
+  <si>
+    <t>Priorisieren des Backlogs</t>
+  </si>
+  <si>
+    <t>Kommunikation mit den Steakholdern</t>
+  </si>
+  <si>
+    <t>Einladungen für die Reviews</t>
+  </si>
+  <si>
+    <t>Erstellung meines Berichts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,45 +277,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -577,21 +597,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
@@ -599,285 +619,285 @@
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="8" t="s">
+    <row r="16" spans="1:4" ht="48">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:4" ht="32">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>3</v>
       </c>
     </row>
@@ -888,74 +908,74 @@
       <c r="B28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
@@ -964,10 +984,62 @@
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
+      <c r="C38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="C39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="C42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/06_weitere_Dateien/Arbeitsverteilung.xlsx
+++ b/06_weitere_Dateien/Arbeitsverteilung.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E50F37-3E0D-7E45-BFC9-057A032DA397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -64,9 +63,6 @@
     <t>Zeit in Stunden</t>
   </si>
   <si>
-    <t>Erstellung Scrum Zusammenfassung anahnd der Scrum Guides</t>
-  </si>
-  <si>
     <t>Scrum Fragen beantworten</t>
   </si>
   <si>
@@ -76,9 +72,6 @@
     <t>Vorbereitung auf Reviews und auf andere Meetings, Planen des Ablaufs</t>
   </si>
   <si>
-    <t>Erstellung der Dateien während des Scrum Vorlesung</t>
-  </si>
-  <si>
     <t>Aktualisieren der Dateien für Sprint-Inkremente</t>
   </si>
   <si>
@@ -167,13 +160,22 @@
   </si>
   <si>
     <t>Erstellung meines Berichts</t>
+  </si>
+  <si>
+    <t>Erstellung der Dateien während des Scrum Vorlesung (Gruppenarbeiten, DoD, DoR,...)</t>
+  </si>
+  <si>
+    <t>Erstellung Scrum Zusammenfassung anhand der Scrum Guides</t>
+  </si>
+  <si>
+    <t>Formatierung Bericht und Korrektierung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,7 +279,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,6 +297,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -604,22 +607,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -633,418 +636,446 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="48">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+    <row r="16" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
+      <c r="D28" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="3" t="s">
+      <c r="D31" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="3" t="s">
+      <c r="D34" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="12" t="s">
-        <v>43</v>
+      <c r="C38" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="C39" s="12" t="s">
-        <v>44</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="C40" s="12" t="s">
-        <v>45</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C40" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="C41" s="12" t="s">
-        <v>46</v>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C41" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="C42" s="12" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C42" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="C43" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:B37"/>
     <mergeCell ref="B12:B19"/>
     <mergeCell ref="A2:A27"/>
     <mergeCell ref="B20:B27"/>
